--- a/Repositorio BarrioKing/Area Proceso REQM/RCREQM_1.0_2016.xlsx
+++ b/Repositorio BarrioKing/Area Proceso REQM/RCREQM_1.0_2016.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Montana\Desktop\BarrioKing-master\BarrioKing-master\Repositorio BarrioKing\Area Proceso REQM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\facilitador\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -190,9 +190,6 @@
     <t>Nombre del Proyecto</t>
   </si>
   <si>
-    <t>Solicitud_Cambio_Reqm_SAP_001</t>
-  </si>
-  <si>
     <t>F-R05 Plantilla de Registro de Cambios a Requerimientos de Proyectos</t>
   </si>
   <si>
@@ -205,22 +202,25 @@
     <t>Sis Rev –Sitema de Reserva</t>
   </si>
   <si>
-    <t>CRQ001</t>
-  </si>
-  <si>
     <t>Jeral Benites</t>
   </si>
   <si>
     <t>Revisado</t>
   </si>
   <si>
-    <t>F-R05 Plantilla de Registro de Cambios a Requerimientos de Proyectos RCREQM_1.0_2016</t>
+    <t>SOLREQ00001-2016</t>
+  </si>
+  <si>
+    <t>2 dias</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CAMBIOS DE REQUERIMIENTOS DEL PROYECTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="29">
     <font>
       <sz val="10"/>
@@ -229,6 +229,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -437,7 +438,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -558,6 +559,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,7 +641,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
@@ -736,7 +808,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -866,47 +937,62 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -930,56 +1016,76 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1121,14 +1227,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>157371</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>240196</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1152,8 +1258,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="171450" y="161925"/>
-          <a:ext cx="714375" cy="714375"/>
+          <a:off x="173935" y="157371"/>
+          <a:ext cx="927652" cy="960781"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1667,15 +1773,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="12"/>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -1691,63 +1797,63 @@
     </row>
     <row r="4" spans="1:9" ht="36.75" customHeight="1" thickBot="1">
       <c r="A4" s="12"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="99" t="s">
+      <c r="E4" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="98" t="s">
         <v>22</v>
       </c>
-      <c r="H4" s="99" t="s">
+      <c r="H4" s="98" t="s">
         <v>23</v>
       </c>
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="12"/>
-      <c r="B5" s="104">
+      <c r="B5" s="103">
         <v>1</v>
       </c>
-      <c r="C5" s="104">
+      <c r="C5" s="103">
         <v>1</v>
       </c>
-      <c r="D5" s="106">
+      <c r="D5" s="105">
         <v>42540</v>
       </c>
-      <c r="E5" s="107" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="104" t="s">
+      <c r="E5" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="103" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="109" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="104" t="s">
-        <v>55</v>
+      <c r="G5" s="108" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="103" t="s">
+        <v>53</v>
       </c>
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="12"/>
-      <c r="B6" s="105"/>
-      <c r="C6" s="105"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="105"/>
-      <c r="H6" s="105"/>
+      <c r="B6" s="104"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="104"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="104"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="104"/>
       <c r="I6" s="12"/>
     </row>
   </sheetData>
@@ -1789,36 +1895,36 @@
     <row r="2" spans="1:12" ht="48.75" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="15"/>
-      <c r="C2" s="138" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
+      <c r="C2" s="109" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="2"/>
       <c r="B3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="141" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="142"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
+      <c r="C3" s="112" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
     </row>
     <row r="4" spans="1:12" ht="21.75" customHeight="1">
       <c r="A4" s="2"/>
@@ -1827,29 +1933,29 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="144" t="s">
+      <c r="B5" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="146"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="71"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="117"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="2"/>
@@ -1857,13 +1963,13 @@
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
     </row>
     <row r="7" spans="1:12" ht="13.5">
       <c r="A7" s="2"/>
@@ -1872,13 +1978,13 @@
       </c>
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="2"/>
@@ -1886,348 +1992,348 @@
         <v>0</v>
       </c>
       <c r="C8" s="21"/>
-      <c r="D8" s="147" t="s">
+      <c r="D8" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="147"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="2"/>
       <c r="C9" s="18"/>
       <c r="D9" s="22"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
     </row>
     <row r="10" spans="1:12" ht="12" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="122" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="137"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="71"/>
-      <c r="L10" s="71"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
     </row>
     <row r="11" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
     </row>
     <row r="12" spans="1:12" ht="12" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
     </row>
     <row r="13" spans="1:12" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="2"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="137" t="s">
+      <c r="D14" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="137"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="71"/>
-      <c r="L14" s="71"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="71"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
     </row>
     <row r="16" spans="1:12" ht="12" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="137" t="s">
+      <c r="D16" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E16" s="137"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="71"/>
-      <c r="L16" s="71"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
     </row>
     <row r="17" spans="1:12" s="24" customFormat="1" ht="12" customHeight="1">
       <c r="A17" s="23"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="74"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
+      <c r="B17" s="94"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="72"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="72"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="3"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
-      <c r="L18" s="71"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
     </row>
     <row r="19" spans="1:12" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="74"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="74"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="74"/>
     </row>
     <row r="20" spans="1:12" s="26" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="74"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+      <c r="K20" s="74"/>
+      <c r="L20" s="74"/>
     </row>
     <row r="21" spans="1:12" s="26" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
+      <c r="D21" s="121"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="74"/>
+      <c r="K21" s="74"/>
+      <c r="L21" s="74"/>
     </row>
     <row r="22" spans="1:12" s="26" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="136" t="s">
+      <c r="C22" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="75"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="74"/>
+      <c r="K22" s="74"/>
+      <c r="L22" s="74"/>
     </row>
     <row r="23" spans="1:12" s="26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B23" s="78"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74"/>
+      <c r="L23" s="74"/>
     </row>
     <row r="24" spans="1:12" ht="13.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="80"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="71"/>
-      <c r="L24" s="71"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
     </row>
     <row r="25" spans="1:12" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B25" s="134" t="s">
+      <c r="B25" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
     </row>
     <row r="26" spans="1:12" s="26" customFormat="1" ht="13.5" customHeight="1">
       <c r="B26" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="135" t="s">
+      <c r="C26" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="75"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="74"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
     </row>
     <row r="27" spans="1:12" s="26" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B27" s="111" t="s">
+      <c r="B27" s="126" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="112"/>
-      <c r="D27" s="112"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
+      <c r="C27" s="127"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
+      <c r="I27" s="74"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
     </row>
     <row r="28" spans="1:12" s="26" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="113" t="s">
+      <c r="C28" s="144" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="114"/>
-      <c r="E28" s="115"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="75"/>
-      <c r="H28" s="75"/>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="75"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="3"/>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
-      <c r="L29" s="71"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="127"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A30" s="59"/>
       <c r="B30" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="131" t="s">
+      <c r="C30" s="123" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="132"/>
-      <c r="E30" s="133"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="75"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="75"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
     </row>
     <row r="31" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A31" s="59"/>
@@ -2239,13 +2345,13 @@
       </c>
       <c r="D31" s="62"/>
       <c r="E31" s="63"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="76"/>
-      <c r="I31" s="76"/>
-      <c r="J31" s="76"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="75"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
     </row>
     <row r="32" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A32" s="59"/>
@@ -2257,439 +2363,439 @@
       </c>
       <c r="D32" s="62"/>
       <c r="E32" s="63"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="76"/>
-      <c r="J32" s="76"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="75"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="75"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
     </row>
     <row r="33" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A33" s="59"/>
       <c r="B33" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="131" t="s">
+      <c r="C33" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="132"/>
-      <c r="E33" s="133"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="76"/>
-      <c r="I33" s="76"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="125"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="75"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="75"/>
+      <c r="J33" s="75"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
     </row>
     <row r="34" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A34" s="59"/>
       <c r="B34" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="131" t="s">
+      <c r="C34" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="D34" s="132"/>
-      <c r="E34" s="133"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="76"/>
-      <c r="I34" s="76"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="75"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="75"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
     </row>
     <row r="35" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A35" s="59"/>
       <c r="B35" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="131" t="s">
+      <c r="C35" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="132"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="76"/>
-      <c r="I35" s="76"/>
-      <c r="J35" s="76"/>
-      <c r="K35" s="76"/>
-      <c r="L35" s="76"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="125"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="75"/>
+      <c r="H35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="75"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
     </row>
     <row r="36" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A36" s="59"/>
       <c r="B36" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="126" t="s">
+      <c r="C36" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
+      <c r="D36" s="131"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="75"/>
+      <c r="I36" s="75"/>
+      <c r="J36" s="75"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
     </row>
     <row r="37" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A37" s="59"/>
       <c r="B37" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="126" t="s">
+      <c r="C37" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="127"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="76"/>
-      <c r="I37" s="76"/>
-      <c r="J37" s="76"/>
-      <c r="K37" s="76"/>
-      <c r="L37" s="76"/>
+      <c r="D37" s="131"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="75"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
     </row>
     <row r="38" spans="1:12" s="60" customFormat="1" ht="12">
       <c r="A38" s="59"/>
       <c r="B38" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="126" t="s">
+      <c r="C38" s="130" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="127"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
-      <c r="H38" s="76"/>
-      <c r="I38" s="76"/>
-      <c r="J38" s="76"/>
-      <c r="K38" s="76"/>
-      <c r="L38" s="76"/>
+      <c r="D38" s="131"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="75"/>
+      <c r="I38" s="75"/>
+      <c r="J38" s="75"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
     </row>
     <row r="39" spans="1:12" ht="26.25" customHeight="1">
       <c r="A39" s="3"/>
-      <c r="B39" s="78"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79"/>
-      <c r="E39" s="79"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="78"/>
+      <c r="E39" s="78"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="70"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
     </row>
     <row r="40" spans="1:12" ht="13.5">
       <c r="A40" s="3"/>
-      <c r="B40" s="80"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
     </row>
     <row r="41" spans="1:12" hidden="1">
       <c r="A41" s="3"/>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="130"/>
-      <c r="D41" s="130"/>
-      <c r="E41" s="130"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="77"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
+      <c r="C41" s="134"/>
+      <c r="D41" s="134"/>
+      <c r="E41" s="134"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
     </row>
     <row r="42" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A42" s="3"/>
-      <c r="B42" s="81" t="s">
+      <c r="B42" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="C42" s="81" t="s">
+      <c r="C42" s="80" t="s">
         <v>20</v>
       </c>
-      <c r="D42" s="81" t="s">
+      <c r="D42" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="E42" s="81" t="s">
+      <c r="E42" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="F42" s="77"/>
-      <c r="G42" s="77"/>
-      <c r="H42" s="77"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
     </row>
     <row r="43" spans="1:12" hidden="1">
       <c r="A43" s="3"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="83"/>
-      <c r="D43" s="82"/>
-      <c r="E43" s="84"/>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
+      <c r="B43" s="81"/>
+      <c r="C43" s="82"/>
+      <c r="D43" s="81"/>
+      <c r="E43" s="83"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
     </row>
     <row r="44" spans="1:12" hidden="1">
       <c r="A44" s="3"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="84"/>
-      <c r="F44" s="77"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="77"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="82"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
     </row>
     <row r="45" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A45" s="3"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="83"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="84"/>
-      <c r="F45" s="77"/>
-      <c r="G45" s="77"/>
-      <c r="H45" s="77"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
+      <c r="B45" s="81"/>
+      <c r="C45" s="82"/>
+      <c r="D45" s="81"/>
+      <c r="E45" s="83"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
     </row>
     <row r="46" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A46" s="3"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="83"/>
-      <c r="D46" s="82"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="77"/>
-      <c r="G46" s="77"/>
-      <c r="H46" s="77"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="82"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="83"/>
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="I46" s="70"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
     </row>
     <row r="47" spans="1:12" ht="12.75" hidden="1" customHeight="1">
       <c r="A47" s="3"/>
-      <c r="B47" s="85"/>
-      <c r="C47" s="86"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="86"/>
-      <c r="F47" s="77"/>
-      <c r="G47" s="77"/>
-      <c r="H47" s="77"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
+      <c r="B47" s="84"/>
+      <c r="C47" s="85"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="70"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
     </row>
     <row r="48" spans="1:12" hidden="1">
       <c r="A48" s="23"/>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="77"/>
-      <c r="G48" s="77"/>
-      <c r="H48" s="77"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
+      <c r="B48" s="86"/>
+      <c r="C48" s="87"/>
+      <c r="D48" s="87"/>
+      <c r="E48" s="87"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="70"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="23"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="89"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
+      <c r="B49" s="128"/>
+      <c r="C49" s="128"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="87"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="70"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="23"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="90"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="77"/>
-      <c r="G50" s="77"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="71"/>
-      <c r="J50" s="71"/>
-      <c r="K50" s="71"/>
-      <c r="L50" s="71"/>
+      <c r="B50" s="128"/>
+      <c r="C50" s="128"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="I50" s="70"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="23"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="73"/>
-      <c r="D51" s="92"/>
-      <c r="E51" s="73"/>
-      <c r="F51" s="77"/>
-      <c r="G51" s="77"/>
-      <c r="H51" s="77"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="71"/>
-      <c r="L51" s="71"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="72"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="76"/>
+      <c r="G51" s="76"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="70"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="23"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="73"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="73"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="77"/>
-      <c r="H52" s="77"/>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71"/>
-      <c r="K52" s="71"/>
-      <c r="L52" s="71"/>
+      <c r="B52" s="90"/>
+      <c r="C52" s="72"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="72"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="70"/>
+      <c r="J52" s="70"/>
+      <c r="K52" s="70"/>
+      <c r="L52" s="70"/>
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="23"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="73"/>
-      <c r="D53" s="92"/>
-      <c r="E53" s="73"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="77"/>
-      <c r="H53" s="77"/>
-      <c r="I53" s="71"/>
-      <c r="J53" s="71"/>
-      <c r="K53" s="71"/>
-      <c r="L53" s="71"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="72"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="72"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="70"/>
+      <c r="J53" s="70"/>
+      <c r="K53" s="70"/>
+      <c r="L53" s="70"/>
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="23"/>
-      <c r="B54" s="91"/>
-      <c r="C54" s="73"/>
-      <c r="D54" s="92"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="71"/>
-      <c r="J54" s="71"/>
-      <c r="K54" s="71"/>
-      <c r="L54" s="71"/>
+      <c r="B54" s="90"/>
+      <c r="C54" s="72"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="70"/>
+      <c r="J54" s="70"/>
+      <c r="K54" s="70"/>
+      <c r="L54" s="70"/>
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="23"/>
-      <c r="B55" s="91"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="92"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="77"/>
-      <c r="G55" s="77"/>
-      <c r="H55" s="77"/>
-      <c r="I55" s="71"/>
-      <c r="J55" s="71"/>
-      <c r="K55" s="71"/>
-      <c r="L55" s="71"/>
+      <c r="B55" s="90"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="91"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="76"/>
+      <c r="G55" s="76"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="70"/>
+      <c r="J55" s="70"/>
+      <c r="K55" s="70"/>
+      <c r="L55" s="70"/>
     </row>
     <row r="56" spans="1:12" ht="20.25" customHeight="1">
       <c r="A56" s="23"/>
-      <c r="B56" s="91"/>
-      <c r="C56" s="73"/>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="77"/>
-      <c r="G56" s="77"/>
-      <c r="H56" s="77"/>
-      <c r="I56" s="71"/>
-      <c r="J56" s="71"/>
-      <c r="K56" s="71"/>
-      <c r="L56" s="71"/>
+      <c r="B56" s="90"/>
+      <c r="C56" s="72"/>
+      <c r="D56" s="72"/>
+      <c r="E56" s="72"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="76"/>
+      <c r="H56" s="76"/>
+      <c r="I56" s="70"/>
+      <c r="J56" s="70"/>
+      <c r="K56" s="70"/>
+      <c r="L56" s="70"/>
     </row>
     <row r="57" spans="1:12" ht="20.25" customHeight="1">
       <c r="A57" s="23"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="73"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
-      <c r="I57" s="71"/>
-      <c r="J57" s="71"/>
-      <c r="K57" s="71"/>
-      <c r="L57" s="71"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="129"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="70"/>
+      <c r="J57" s="70"/>
+      <c r="K57" s="70"/>
+      <c r="L57" s="70"/>
     </row>
     <row r="58" spans="1:12" ht="20.25" customHeight="1">
       <c r="A58" s="23"/>
-      <c r="B58" s="91"/>
-      <c r="C58" s="73"/>
-      <c r="D58" s="73"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="77"/>
-      <c r="G58" s="77"/>
-      <c r="H58" s="77"/>
-      <c r="I58" s="71"/>
-      <c r="J58" s="71"/>
-      <c r="K58" s="71"/>
-      <c r="L58" s="71"/>
+      <c r="B58" s="90"/>
+      <c r="C58" s="72"/>
+      <c r="D58" s="72"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="70"/>
+      <c r="J58" s="70"/>
+      <c r="K58" s="70"/>
+      <c r="L58" s="70"/>
     </row>
     <row r="59" spans="1:12" ht="20.25" customHeight="1">
       <c r="A59" s="23"/>
-      <c r="B59" s="91"/>
-      <c r="C59" s="73"/>
-      <c r="D59" s="73"/>
-      <c r="E59" s="73"/>
-      <c r="F59" s="77"/>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
-      <c r="I59" s="71"/>
-      <c r="J59" s="71"/>
-      <c r="K59" s="71"/>
-      <c r="L59" s="71"/>
+      <c r="B59" s="90"/>
+      <c r="C59" s="72"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="70"/>
+      <c r="J59" s="70"/>
+      <c r="K59" s="70"/>
+      <c r="L59" s="70"/>
     </row>
     <row r="60" spans="1:12" ht="30.75" customHeight="1">
       <c r="A60" s="23"/>
-      <c r="B60" s="125"/>
-      <c r="C60" s="125"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="73"/>
-      <c r="F60" s="77"/>
-      <c r="G60" s="77"/>
-      <c r="H60" s="77"/>
-      <c r="I60" s="71"/>
-      <c r="J60" s="71"/>
-      <c r="K60" s="71"/>
-      <c r="L60" s="71"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="129"/>
+      <c r="D60" s="92"/>
+      <c r="E60" s="72"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="70"/>
+      <c r="J60" s="70"/>
+      <c r="K60" s="70"/>
+      <c r="L60" s="70"/>
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="23"/>
@@ -2733,8 +2839,8 @@
     </row>
     <row r="65" spans="1:8" ht="27.75" customHeight="1">
       <c r="A65" s="23"/>
-      <c r="B65" s="122"/>
-      <c r="C65" s="122"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="135"/>
       <c r="D65" s="31"/>
       <c r="E65" s="24"/>
       <c r="F65" s="29"/>
@@ -2800,8 +2906,8 @@
     </row>
     <row r="72" spans="1:8" ht="17.25" customHeight="1">
       <c r="A72" s="23"/>
-      <c r="B72" s="122"/>
-      <c r="C72" s="122"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="135"/>
       <c r="D72" s="24"/>
       <c r="E72" s="24"/>
       <c r="F72" s="29"/>
@@ -2810,8 +2916,8 @@
     </row>
     <row r="73" spans="1:8" ht="17.25" customHeight="1">
       <c r="A73" s="23"/>
-      <c r="B73" s="122"/>
-      <c r="C73" s="122"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
       <c r="D73" s="24"/>
       <c r="E73" s="24"/>
       <c r="F73" s="29"/>
@@ -2820,8 +2926,8 @@
     </row>
     <row r="74" spans="1:8" ht="17.25" customHeight="1">
       <c r="A74" s="23"/>
-      <c r="B74" s="122"/>
-      <c r="C74" s="122"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
       <c r="D74" s="24"/>
       <c r="E74" s="24"/>
       <c r="F74" s="29"/>
@@ -2830,8 +2936,8 @@
     </row>
     <row r="75" spans="1:8" ht="23.25" customHeight="1">
       <c r="A75" s="23"/>
-      <c r="B75" s="122"/>
-      <c r="C75" s="122"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
       <c r="D75" s="31"/>
       <c r="E75" s="24"/>
       <c r="F75" s="29"/>
@@ -3080,8 +3186,8 @@
       <c r="A100" s="23"/>
       <c r="B100" s="40"/>
       <c r="C100" s="24"/>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
       <c r="F100" s="29"/>
       <c r="G100" s="29"/>
       <c r="H100" s="29"/>
@@ -3353,10 +3459,10 @@
     </row>
     <row r="129" spans="1:5" ht="30.75" customHeight="1">
       <c r="A129" s="24"/>
-      <c r="B129" s="123"/>
-      <c r="C129" s="123"/>
-      <c r="D129" s="123"/>
-      <c r="E129" s="123"/>
+      <c r="B129" s="137"/>
+      <c r="C129" s="137"/>
+      <c r="D129" s="137"/>
+      <c r="E129" s="137"/>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="24"/>
@@ -3368,9 +3474,9 @@
     <row r="131" spans="1:5">
       <c r="A131" s="24"/>
       <c r="B131" s="50"/>
-      <c r="C131" s="116"/>
-      <c r="D131" s="116"/>
-      <c r="E131" s="116"/>
+      <c r="C131" s="138"/>
+      <c r="D131" s="138"/>
+      <c r="E131" s="138"/>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="24"/>
@@ -3382,9 +3488,9 @@
     <row r="133" spans="1:5" ht="49.5" customHeight="1">
       <c r="A133" s="24"/>
       <c r="B133" s="52"/>
-      <c r="C133" s="119"/>
-      <c r="D133" s="116"/>
-      <c r="E133" s="116"/>
+      <c r="C133" s="139"/>
+      <c r="D133" s="138"/>
+      <c r="E133" s="138"/>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="24"/>
@@ -3396,9 +3502,9 @@
     <row r="135" spans="1:5">
       <c r="A135" s="24"/>
       <c r="B135" s="50"/>
-      <c r="C135" s="116"/>
-      <c r="D135" s="116"/>
-      <c r="E135" s="116"/>
+      <c r="C135" s="138"/>
+      <c r="D135" s="138"/>
+      <c r="E135" s="138"/>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="24"/>
@@ -3410,9 +3516,9 @@
     <row r="137" spans="1:5" ht="78.75" customHeight="1">
       <c r="A137" s="24"/>
       <c r="B137" s="52"/>
-      <c r="C137" s="119"/>
-      <c r="D137" s="116"/>
-      <c r="E137" s="116"/>
+      <c r="C137" s="139"/>
+      <c r="D137" s="138"/>
+      <c r="E137" s="138"/>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="24"/>
@@ -3431,9 +3537,9 @@
     <row r="140" spans="1:5">
       <c r="A140" s="24"/>
       <c r="B140" s="50"/>
-      <c r="C140" s="116"/>
-      <c r="D140" s="116"/>
-      <c r="E140" s="116"/>
+      <c r="C140" s="138"/>
+      <c r="D140" s="138"/>
+      <c r="E140" s="138"/>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="24"/>
@@ -3445,100 +3551,100 @@
     <row r="142" spans="1:5" ht="58.5" customHeight="1">
       <c r="A142" s="24"/>
       <c r="B142" s="52"/>
-      <c r="C142" s="119"/>
-      <c r="D142" s="116"/>
-      <c r="E142" s="116"/>
+      <c r="C142" s="139"/>
+      <c r="D142" s="138"/>
+      <c r="E142" s="138"/>
     </row>
     <row r="143" spans="1:5" ht="90" customHeight="1">
       <c r="A143" s="24"/>
       <c r="B143" s="52"/>
-      <c r="C143" s="119"/>
-      <c r="D143" s="116"/>
-      <c r="E143" s="116"/>
+      <c r="C143" s="139"/>
+      <c r="D143" s="138"/>
+      <c r="E143" s="138"/>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="24"/>
       <c r="B144" s="52"/>
-      <c r="C144" s="120"/>
-      <c r="D144" s="121"/>
-      <c r="E144" s="121"/>
+      <c r="C144" s="140"/>
+      <c r="D144" s="136"/>
+      <c r="E144" s="136"/>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="24"/>
       <c r="B145" s="54"/>
-      <c r="C145" s="117"/>
-      <c r="D145" s="117"/>
+      <c r="C145" s="141"/>
+      <c r="D145" s="141"/>
       <c r="E145" s="42"/>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="24"/>
       <c r="B146" s="54"/>
-      <c r="C146" s="117"/>
-      <c r="D146" s="117"/>
+      <c r="C146" s="141"/>
+      <c r="D146" s="141"/>
       <c r="E146" s="42"/>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="24"/>
       <c r="B147" s="54"/>
-      <c r="C147" s="117"/>
-      <c r="D147" s="117"/>
+      <c r="C147" s="141"/>
+      <c r="D147" s="141"/>
       <c r="E147" s="42"/>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="24"/>
       <c r="B148" s="54"/>
-      <c r="C148" s="117"/>
-      <c r="D148" s="117"/>
+      <c r="C148" s="141"/>
+      <c r="D148" s="141"/>
       <c r="E148" s="42"/>
     </row>
     <row r="149" spans="1:5">
       <c r="A149" s="24"/>
       <c r="B149" s="54"/>
-      <c r="C149" s="117"/>
-      <c r="D149" s="117"/>
+      <c r="C149" s="141"/>
+      <c r="D149" s="141"/>
       <c r="E149" s="42"/>
     </row>
     <row r="150" spans="1:5">
       <c r="A150" s="24"/>
       <c r="B150" s="54"/>
-      <c r="C150" s="117"/>
-      <c r="D150" s="117"/>
+      <c r="C150" s="141"/>
+      <c r="D150" s="141"/>
       <c r="E150" s="42"/>
     </row>
     <row r="151" spans="1:5">
       <c r="A151" s="24"/>
       <c r="B151" s="54"/>
-      <c r="C151" s="117"/>
-      <c r="D151" s="117"/>
+      <c r="C151" s="141"/>
+      <c r="D151" s="141"/>
       <c r="E151" s="56"/>
     </row>
     <row r="152" spans="1:5">
       <c r="A152" s="24"/>
       <c r="B152" s="54"/>
-      <c r="C152" s="117"/>
-      <c r="D152" s="117"/>
+      <c r="C152" s="141"/>
+      <c r="D152" s="141"/>
       <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5">
       <c r="A153" s="24"/>
       <c r="B153" s="54"/>
-      <c r="C153" s="117"/>
-      <c r="D153" s="117"/>
+      <c r="C153" s="141"/>
+      <c r="D153" s="141"/>
       <c r="E153" s="56"/>
     </row>
     <row r="154" spans="1:5">
       <c r="A154" s="24"/>
       <c r="B154" s="54"/>
-      <c r="C154" s="117"/>
-      <c r="D154" s="117"/>
+      <c r="C154" s="141"/>
+      <c r="D154" s="141"/>
       <c r="E154" s="56"/>
     </row>
     <row r="155" spans="1:5" ht="26.25" customHeight="1">
       <c r="A155" s="24"/>
       <c r="B155" s="54"/>
-      <c r="C155" s="118"/>
-      <c r="D155" s="118"/>
-      <c r="E155" s="118"/>
+      <c r="C155" s="142"/>
+      <c r="D155" s="142"/>
+      <c r="E155" s="142"/>
     </row>
     <row r="156" spans="1:5">
       <c r="A156" s="24"/>
@@ -3584,85 +3690,85 @@
     </row>
     <row r="162" spans="1:5">
       <c r="A162" s="24"/>
-      <c r="B162" s="117"/>
-      <c r="C162" s="117"/>
+      <c r="B162" s="141"/>
+      <c r="C162" s="141"/>
       <c r="D162" s="24"/>
       <c r="E162" s="24"/>
     </row>
     <row r="163" spans="1:5">
       <c r="A163" s="24"/>
-      <c r="B163" s="117"/>
-      <c r="C163" s="117"/>
+      <c r="B163" s="141"/>
+      <c r="C163" s="141"/>
       <c r="D163" s="24"/>
       <c r="E163" s="24"/>
     </row>
     <row r="164" spans="1:5">
       <c r="A164" s="24"/>
-      <c r="B164" s="117"/>
-      <c r="C164" s="117"/>
+      <c r="B164" s="141"/>
+      <c r="C164" s="141"/>
       <c r="D164" s="24"/>
       <c r="E164" s="24"/>
     </row>
     <row r="165" spans="1:5">
       <c r="A165" s="24"/>
-      <c r="B165" s="117"/>
-      <c r="C165" s="117"/>
+      <c r="B165" s="141"/>
+      <c r="C165" s="141"/>
       <c r="D165" s="24"/>
       <c r="E165" s="24"/>
     </row>
     <row r="166" spans="1:5">
       <c r="A166" s="24"/>
-      <c r="B166" s="117"/>
-      <c r="C166" s="117"/>
+      <c r="B166" s="141"/>
+      <c r="C166" s="141"/>
       <c r="D166" s="24"/>
       <c r="E166" s="24"/>
     </row>
     <row r="167" spans="1:5">
       <c r="A167" s="24"/>
-      <c r="B167" s="117"/>
-      <c r="C167" s="117"/>
+      <c r="B167" s="141"/>
+      <c r="C167" s="141"/>
       <c r="D167" s="24"/>
       <c r="E167" s="24"/>
     </row>
     <row r="168" spans="1:5">
       <c r="A168" s="24"/>
-      <c r="B168" s="117"/>
-      <c r="C168" s="117"/>
+      <c r="B168" s="141"/>
+      <c r="C168" s="141"/>
       <c r="D168" s="24"/>
       <c r="E168" s="24"/>
     </row>
     <row r="169" spans="1:5">
       <c r="A169" s="24"/>
-      <c r="B169" s="117"/>
-      <c r="C169" s="117"/>
+      <c r="B169" s="141"/>
+      <c r="C169" s="141"/>
       <c r="D169" s="24"/>
       <c r="E169" s="24"/>
     </row>
     <row r="170" spans="1:5">
       <c r="A170" s="24"/>
-      <c r="B170" s="117"/>
-      <c r="C170" s="117"/>
+      <c r="B170" s="141"/>
+      <c r="C170" s="141"/>
       <c r="D170" s="24"/>
       <c r="E170" s="24"/>
     </row>
     <row r="171" spans="1:5">
       <c r="A171" s="24"/>
-      <c r="B171" s="117"/>
-      <c r="C171" s="117"/>
+      <c r="B171" s="141"/>
+      <c r="C171" s="141"/>
       <c r="D171" s="24"/>
       <c r="E171" s="24"/>
     </row>
     <row r="172" spans="1:5">
       <c r="A172" s="24"/>
-      <c r="B172" s="117"/>
-      <c r="C172" s="117"/>
+      <c r="B172" s="141"/>
+      <c r="C172" s="141"/>
       <c r="D172" s="24"/>
       <c r="E172" s="24"/>
     </row>
     <row r="173" spans="1:5">
       <c r="A173" s="24"/>
-      <c r="B173" s="117"/>
-      <c r="C173" s="117"/>
+      <c r="B173" s="141"/>
+      <c r="C173" s="141"/>
       <c r="D173" s="24"/>
       <c r="E173" s="24"/>
     </row>
@@ -3675,17 +3781,17 @@
     </row>
     <row r="175" spans="1:5" ht="15" customHeight="1">
       <c r="A175" s="52"/>
-      <c r="B175" s="116"/>
-      <c r="C175" s="116"/>
-      <c r="D175" s="116"/>
-      <c r="E175" s="116"/>
+      <c r="B175" s="138"/>
+      <c r="C175" s="138"/>
+      <c r="D175" s="138"/>
+      <c r="E175" s="138"/>
     </row>
     <row r="176" spans="1:5" ht="32.25" customHeight="1">
       <c r="A176" s="52"/>
-      <c r="B176" s="116"/>
-      <c r="C176" s="116"/>
-      <c r="D176" s="116"/>
-      <c r="E176" s="116"/>
+      <c r="B176" s="138"/>
+      <c r="C176" s="138"/>
+      <c r="D176" s="138"/>
+      <c r="E176" s="138"/>
     </row>
     <row r="177" spans="1:5">
       <c r="A177" s="24"/>
@@ -3710,91 +3816,34 @@
     </row>
     <row r="180" spans="1:5" ht="32.25" customHeight="1">
       <c r="A180" s="52"/>
-      <c r="B180" s="110"/>
-      <c r="C180" s="110"/>
-      <c r="D180" s="110"/>
-      <c r="E180" s="110"/>
+      <c r="B180" s="143"/>
+      <c r="C180" s="143"/>
+      <c r="D180" s="143"/>
+      <c r="E180" s="143"/>
     </row>
     <row r="181" spans="1:5" ht="17.25" customHeight="1">
       <c r="A181" s="52"/>
-      <c r="B181" s="110"/>
-      <c r="C181" s="110"/>
-      <c r="D181" s="110"/>
-      <c r="E181" s="110"/>
+      <c r="B181" s="143"/>
+      <c r="C181" s="143"/>
+      <c r="D181" s="143"/>
+      <c r="E181" s="143"/>
     </row>
     <row r="182" spans="1:5" ht="18" customHeight="1">
       <c r="A182" s="52"/>
-      <c r="B182" s="110"/>
-      <c r="C182" s="110"/>
-      <c r="D182" s="110"/>
-      <c r="E182" s="110"/>
+      <c r="B182" s="143"/>
+      <c r="C182" s="143"/>
+      <c r="D182" s="143"/>
+      <c r="E182" s="143"/>
     </row>
     <row r="183" spans="1:5">
       <c r="A183" s="52"/>
-      <c r="B183" s="110"/>
-      <c r="C183" s="110"/>
-      <c r="D183" s="110"/>
-      <c r="E183" s="110"/>
+      <c r="B183" s="143"/>
+      <c r="C183" s="143"/>
+      <c r="D183" s="143"/>
+      <c r="E183" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="B129:E129"/>
-    <mergeCell ref="C131:E131"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="C142:E142"/>
-    <mergeCell ref="C143:E143"/>
-    <mergeCell ref="C144:E144"/>
-    <mergeCell ref="C145:D145"/>
-    <mergeCell ref="C133:E133"/>
-    <mergeCell ref="C135:E135"/>
-    <mergeCell ref="C137:E137"/>
-    <mergeCell ref="C140:E140"/>
-    <mergeCell ref="C150:D150"/>
-    <mergeCell ref="C151:D151"/>
-    <mergeCell ref="C152:D152"/>
-    <mergeCell ref="C153:D153"/>
-    <mergeCell ref="C146:D146"/>
-    <mergeCell ref="C147:D147"/>
-    <mergeCell ref="C148:D148"/>
-    <mergeCell ref="C149:D149"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="B170:C170"/>
-    <mergeCell ref="C154:D154"/>
-    <mergeCell ref="C155:E155"/>
-    <mergeCell ref="B162:C162"/>
-    <mergeCell ref="B163:C163"/>
     <mergeCell ref="B183:E183"/>
     <mergeCell ref="B27:E27"/>
     <mergeCell ref="C28:E28"/>
@@ -3811,6 +3860,63 @@
     <mergeCell ref="B175:E175"/>
     <mergeCell ref="B167:C167"/>
     <mergeCell ref="B168:C168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="B170:C170"/>
+    <mergeCell ref="C154:D154"/>
+    <mergeCell ref="C155:E155"/>
+    <mergeCell ref="B162:C162"/>
+    <mergeCell ref="B163:C163"/>
+    <mergeCell ref="C150:D150"/>
+    <mergeCell ref="C151:D151"/>
+    <mergeCell ref="C152:D152"/>
+    <mergeCell ref="C153:D153"/>
+    <mergeCell ref="C146:D146"/>
+    <mergeCell ref="C147:D147"/>
+    <mergeCell ref="C148:D148"/>
+    <mergeCell ref="C149:D149"/>
+    <mergeCell ref="C142:E142"/>
+    <mergeCell ref="C143:E143"/>
+    <mergeCell ref="C144:E144"/>
+    <mergeCell ref="C145:D145"/>
+    <mergeCell ref="C133:E133"/>
+    <mergeCell ref="C135:E135"/>
+    <mergeCell ref="C137:E137"/>
+    <mergeCell ref="C140:E140"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B129:E129"/>
+    <mergeCell ref="C131:E131"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B68:B69">
@@ -3834,17 +3940,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="22.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="20.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="19.140625" customWidth="1"/>
@@ -3855,150 +3961,162 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="37.5" customHeight="1">
-      <c r="B2" s="68"/>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="67"/>
+      <c r="C2" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="97"/>
-      <c r="H2" s="97"/>
-      <c r="I2" s="97"/>
-      <c r="J2" s="97"/>
-      <c r="K2" s="97"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+      <c r="G2" s="148"/>
+      <c r="H2" s="148"/>
+      <c r="I2" s="148"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="96"/>
     </row>
     <row r="3" spans="2:11" ht="18">
       <c r="B3" s="1"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="97"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
+      <c r="C3" s="150"/>
+      <c r="D3" s="151"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="96"/>
     </row>
     <row r="4" spans="2:11" ht="18">
       <c r="B4" s="1"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="97"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="98" t="s">
+      <c r="C4" s="153"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="155"/>
+      <c r="K4" s="96"/>
+    </row>
+    <row r="5" spans="2:11" ht="18">
+      <c r="B5" s="1"/>
+      <c r="C5" s="156"/>
+      <c r="D5" s="156"/>
+      <c r="E5" s="156"/>
+      <c r="F5" s="156"/>
+      <c r="G5" s="156"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C6" s="159" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="157"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="158"/>
+      <c r="K6" s="96"/>
+    </row>
+    <row r="7" spans="2:11" ht="18">
+      <c r="B7" s="1"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="96"/>
+      <c r="I7" s="96"/>
+      <c r="J7" s="96"/>
+      <c r="K7" s="96"/>
+    </row>
+    <row r="8" spans="2:11" s="6" customFormat="1" ht="34.5" customHeight="1">
+      <c r="B8" s="97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="97" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="I8" s="97" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="97" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="100">
+        <v>1</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="99">
+        <v>42539</v>
+      </c>
+      <c r="E9" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="99">
+        <v>42541</v>
+      </c>
+      <c r="G9" s="101">
+        <v>2</v>
+      </c>
+      <c r="H9" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="97"/>
-    </row>
-    <row r="6" spans="2:11" ht="18">
-      <c r="B6" s="1"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="97"/>
-    </row>
-    <row r="7" spans="2:11" s="6" customFormat="1" ht="34.5" customHeight="1">
-      <c r="B7" s="98" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="98" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="98" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="98" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="98" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="98" t="s">
-        <v>10</v>
-      </c>
-      <c r="J7" s="98" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="B8" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="67" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="100">
-        <v>42539</v>
-      </c>
-      <c r="E8" s="101" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="100">
-        <v>42543</v>
-      </c>
-      <c r="G8" s="102">
-        <v>2</v>
-      </c>
-      <c r="H8" s="102">
-        <v>2</v>
-      </c>
-      <c r="I8" s="102" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="69"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="69"/>
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-      <c r="J10" s="69"/>
+      <c r="J10" s="68"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="14"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="69"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
+      <c r="J11" s="68"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
-      <c r="C12" s="67"/>
+      <c r="C12" s="66"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
@@ -4009,7 +4127,7 @@
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
-      <c r="C13" s="67"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
       <c r="F13" s="14"/>
@@ -4020,7 +4138,7 @@
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
-      <c r="C14" s="67"/>
+      <c r="C14" s="66"/>
       <c r="D14" s="14"/>
       <c r="E14" s="14"/>
       <c r="F14" s="14"/>
@@ -4031,7 +4149,7 @@
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
-      <c r="C15" s="67"/>
+      <c r="C15" s="66"/>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -4042,7 +4160,7 @@
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="C16" s="66"/>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
@@ -4084,10 +4202,24 @@
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
     </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:J4"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8:I19">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I20">
       <formula1>"Aprobado,Rechazado"</formula1>
     </dataValidation>
   </dataValidations>
